--- a/presentation_data/RTS.xlsx
+++ b/presentation_data/RTS.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\3학년1학기\신호처리 및 시스템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD4182C-A2A1-4A71-96D6-6338F8EC0FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A800D9A-57D0-40FA-A3FD-C30072D88188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F51E13F1-0B81-4DC4-AA1E-48770D051AB2}"/>
   </bookViews>
   <sheets>
-    <sheet name="tech_tree_2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="tech_tree_2" sheetId="2" r:id="rId2"/>
     <sheet name="FBTI_Q" sheetId="3" r:id="rId3"/>
     <sheet name="Snack_Q" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="155">
   <si>
     <t>간식백서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>과식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>호기심 때문에 이상한 종류의 간식을 먹어 본적이 있습니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -526,23 +522,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>plenty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Junior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>First try</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rIch</t>
+    <t>데이터셋업로드(본)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정열적인 모험가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여유로운 여행객</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰손</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본능적인 격투가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경쾌한 투우사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고독한 미식가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우아한 요리사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵직한 남고생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평화로운 자연인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬세한 예술가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑에 빠진 음유시인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소잡는 씨름선수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호기심 많은 제리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵직한 여고생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여유로운 스님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보수적인 야구선수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4차원 노찌롱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Much</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Little</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Challenging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't care</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>care</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Afford</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1234,6 +1346,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1243,7 +1370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1334,94 +1461,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1430,110 +1581,89 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1849,11 +1979,421 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B034DE5A-C495-4627-ACF0-32E4C8FE1361}">
+  <dimension ref="B1:Z28"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="3.69921875" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" customWidth="1"/>
+    <col min="6" max="6" width="6.796875" customWidth="1"/>
+    <col min="18" max="18" width="4.19921875" customWidth="1"/>
+    <col min="19" max="19" width="9.296875" customWidth="1"/>
+    <col min="21" max="21" width="3.69921875" customWidth="1"/>
+    <col min="27" max="27" width="3.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G2" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="71"/>
+    </row>
+    <row r="3" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G3" s="6"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="2:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="79"/>
+      <c r="R4" s="11"/>
+      <c r="V4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="79"/>
+    </row>
+    <row r="5" spans="2:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
+      <c r="J5" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="85"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="62"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="95"/>
+    </row>
+    <row r="6" spans="2:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="64"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="81"/>
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="87"/>
+    </row>
+    <row r="7" spans="2:26" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G7" s="82"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="7"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="83"/>
+    </row>
+    <row r="8" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G8" s="6"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="7"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="75"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="77"/>
+      <c r="V10" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="89"/>
+      <c r="Y10" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z10" s="95"/>
+    </row>
+    <row r="11" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="4"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="87"/>
+    </row>
+    <row r="12" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="73"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="73"/>
+      <c r="M12" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="73"/>
+      <c r="P12" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="73"/>
+      <c r="V12" s="22"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="20"/>
+      <c r="K13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="V13" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="W13" s="67"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="67"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="67"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="67"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="67"/>
+      <c r="V14" s="16"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="7"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="14"/>
+      <c r="V15" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="W15" s="93"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="67"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="67"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="67"/>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="7"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="13"/>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="67"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="67"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="67"/>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="N20" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="66"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="N21" s="14"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="N22" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="66"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="25" spans="4:17" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="4:17" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="4:17" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="4:17" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="V4:W7"/>
+    <mergeCell ref="V10:W11"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G4:H7"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768FF83E-BCCE-4679-9179-793539AC1CC9}">
   <dimension ref="C1:V74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1864,7 +2404,7 @@
     <col min="7" max="8" width="4.69921875" customWidth="1"/>
     <col min="9" max="9" width="18.19921875" customWidth="1"/>
     <col min="10" max="11" width="3.69921875" customWidth="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="17.59765625" customWidth="1"/>
     <col min="13" max="14" width="3.69921875" customWidth="1"/>
     <col min="15" max="15" width="17.59765625" customWidth="1"/>
     <col min="16" max="17" width="3.69921875" customWidth="1"/>
@@ -1880,13 +2420,13 @@
     <row r="2" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="3:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H3" s="26"/>
-      <c r="I3" s="69" t="s">
-        <v>69</v>
+      <c r="I3" s="36" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G4" s="27"/>
-      <c r="I4" s="70"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G5" s="27"/>
@@ -1894,91 +2434,94 @@
     </row>
     <row r="6" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G6" s="27"/>
-      <c r="H6" s="93"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="L6" s="97" t="s">
+        <v>121</v>
+      </c>
       <c r="M6" s="26"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="95" t="s">
+      <c r="N6" s="33"/>
+      <c r="O6" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="36" t="s">
         <v>117</v>
-      </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="69" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G7" s="27"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="O7" s="70"/>
+      <c r="L7" s="35"/>
+      <c r="O7" s="35"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="70"/>
-      <c r="U7" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="V7" s="80"/>
+      <c r="R7" s="35"/>
+      <c r="U7" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="V7" s="38"/>
     </row>
     <row r="8" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G8" s="27"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="82"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="40"/>
     </row>
     <row r="9" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="50" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="50" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="71" t="s">
-        <v>65</v>
+      <c r="I9" s="52" t="s">
+        <v>64</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="71" t="s">
+      <c r="K9" s="30"/>
+      <c r="L9" s="52" t="s">
         <v>28</v>
       </c>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="68"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="9"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="68"/>
+      <c r="F10" s="51"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="72"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="17"/>
-      <c r="L10" s="72"/>
+      <c r="L10" s="53"/>
       <c r="M10" s="9"/>
-      <c r="U10" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="V10" s="76"/>
+      <c r="U10" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="55"/>
     </row>
     <row r="11" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E11" s="4"/>
       <c r="H11" s="4"/>
       <c r="J11" s="17"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="78"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="57"/>
     </row>
     <row r="12" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E12" s="4"/>
       <c r="H12" s="4"/>
       <c r="J12" s="17"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="52" t="s">
         <v>27</v>
       </c>
       <c r="M12" s="9"/>
@@ -1986,18 +2529,18 @@
     <row r="13" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="L13" s="72"/>
+      <c r="L13" s="53"/>
       <c r="M13" s="9"/>
-      <c r="U13" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="V13" s="84"/>
+      <c r="U13" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="V13" s="42"/>
     </row>
     <row r="14" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="86"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="44"/>
     </row>
     <row r="15" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E15" s="4"/>
@@ -2006,74 +2549,74 @@
     <row r="16" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="L16" s="71" t="s">
-        <v>47</v>
+      <c r="L16" s="52" t="s">
+        <v>46</v>
       </c>
       <c r="M16" s="9"/>
-      <c r="U16" s="87" t="s">
-        <v>64</v>
-      </c>
-      <c r="V16" s="88"/>
+      <c r="U16" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="V16" s="46"/>
     </row>
     <row r="17" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E17" s="4"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="73" t="s">
-        <v>66</v>
+      <c r="I17" s="58" t="s">
+        <v>65</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="72"/>
+      <c r="L17" s="53"/>
       <c r="M17" s="9"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="90"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="48"/>
     </row>
     <row r="18" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E18" s="4"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="74"/>
+      <c r="I18" s="59"/>
       <c r="J18" s="21"/>
     </row>
     <row r="19" spans="5:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" s="4"/>
       <c r="H19" s="4"/>
       <c r="J19" s="17"/>
-      <c r="L19" s="73" t="s">
-        <v>51</v>
+      <c r="L19" s="58" t="s">
+        <v>50</v>
       </c>
       <c r="M19" s="9"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="91"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
     </row>
     <row r="20" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E20" s="4"/>
       <c r="H20" s="4"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="74"/>
+      <c r="L20" s="59"/>
       <c r="M20" s="9"/>
-      <c r="U20" s="91"/>
-      <c r="V20" s="91"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
     </row>
     <row r="21" spans="5:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E21" s="4"/>
       <c r="H21" s="4"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="69" t="s">
-        <v>53</v>
+      <c r="O21" s="36" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E22" s="4"/>
       <c r="H22" s="4"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="70"/>
+      <c r="O22" s="35"/>
     </row>
     <row r="23" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E23" s="4"/>
       <c r="H23" s="4"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="71" t="s">
-        <v>48</v>
+      <c r="L23" s="52" t="s">
+        <v>47</v>
       </c>
       <c r="M23" s="28"/>
       <c r="N23" s="4"/>
@@ -2081,48 +2624,48 @@
     <row r="24" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E24" s="4"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="73" t="s">
-        <v>67</v>
+      <c r="I24" s="58" t="s">
+        <v>66</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="72"/>
+      <c r="L24" s="53"/>
       <c r="M24" s="23"/>
       <c r="N24" s="24"/>
-      <c r="O24" s="71" t="s">
-        <v>52</v>
+      <c r="O24" s="52" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="74"/>
+      <c r="I25" s="59"/>
       <c r="K25" s="4"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="72"/>
+      <c r="O25" s="53"/>
     </row>
     <row r="26" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E26" s="4"/>
       <c r="H26" s="4"/>
       <c r="K26" s="24"/>
-      <c r="L26" s="73" t="s">
-        <v>49</v>
+      <c r="L26" s="58" t="s">
+        <v>48</v>
       </c>
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="L27" s="74"/>
+      <c r="L27" s="59"/>
       <c r="N27" s="24"/>
-      <c r="O27" s="71" t="s">
-        <v>50</v>
+      <c r="O27" s="52" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="O28" s="72"/>
+      <c r="O28" s="53"/>
     </row>
     <row r="29" spans="5:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="4"/>
@@ -2136,22 +2679,22 @@
       <c r="E31" s="4"/>
       <c r="H31" s="4"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="69" t="s">
-        <v>54</v>
+      <c r="O31" s="36" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E32" s="4"/>
       <c r="H32" s="4"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="70"/>
+      <c r="O32" s="35"/>
     </row>
     <row r="33" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E33" s="4"/>
       <c r="H33" s="4"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="71" t="s">
-        <v>48</v>
+      <c r="L33" s="52" t="s">
+        <v>47</v>
       </c>
       <c r="M33" s="28"/>
       <c r="N33" s="4"/>
@@ -2159,48 +2702,48 @@
     <row r="34" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E34" s="4"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="73" t="s">
-        <v>68</v>
+      <c r="I34" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="72"/>
+      <c r="L34" s="53"/>
       <c r="M34" s="23"/>
       <c r="N34" s="24"/>
-      <c r="O34" s="71" t="s">
-        <v>55</v>
+      <c r="O34" s="52" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E35" s="4"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="74"/>
+      <c r="I35" s="59"/>
       <c r="K35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="72"/>
+      <c r="O35" s="53"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="69" t="s">
-        <v>57</v>
+      <c r="R35" s="36" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E36" s="4"/>
       <c r="H36" s="4"/>
       <c r="K36" s="24"/>
-      <c r="L36" s="73" t="s">
-        <v>49</v>
+      <c r="L36" s="58" t="s">
+        <v>48</v>
       </c>
       <c r="N36" s="4"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="70"/>
+      <c r="R36" s="35"/>
     </row>
     <row r="37" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="L37" s="74"/>
+      <c r="L37" s="59"/>
       <c r="N37" s="24"/>
-      <c r="O37" s="71" t="s">
-        <v>56</v>
+      <c r="O37" s="52" t="s">
+        <v>55</v>
       </c>
       <c r="P37" s="10"/>
       <c r="Q37" s="4"/>
@@ -2208,27 +2751,27 @@
     <row r="38" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="O38" s="72"/>
+      <c r="O38" s="53"/>
       <c r="Q38" s="24"/>
-      <c r="R38" s="71" t="s">
-        <v>58</v>
+      <c r="R38" s="52" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="R39" s="72"/>
+      <c r="R39" s="53"/>
     </row>
     <row r="40" spans="5:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E40" s="4"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="67" t="s">
-        <v>73</v>
+      <c r="I40" s="50" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E41" s="4"/>
-      <c r="I41" s="68"/>
+      <c r="I41" s="51"/>
     </row>
     <row r="42" spans="5:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E42" s="4"/>
@@ -2241,20 +2784,20 @@
     </row>
     <row r="45" spans="5:18" ht="7.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E45" s="24"/>
-      <c r="F45" s="67" t="s">
-        <v>59</v>
+      <c r="F45" s="50" t="s">
+        <v>58</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="67" t="s">
-        <v>71</v>
+      <c r="I45" s="50" t="s">
+        <v>70</v>
       </c>
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="5:18" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F46" s="68"/>
+      <c r="F46" s="51"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="68"/>
+      <c r="I46" s="51"/>
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="5:18" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2263,38 +2806,38 @@
     </row>
     <row r="48" spans="5:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H48" s="24"/>
-      <c r="I48" s="67" t="s">
-        <v>72</v>
+      <c r="I48" s="50" t="s">
+        <v>71</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
-      <c r="L48" s="67" t="s">
-        <v>61</v>
+      <c r="L48" s="50" t="s">
+        <v>60</v>
       </c>
       <c r="N48" s="7"/>
-      <c r="O48" s="67" t="s">
-        <v>60</v>
+      <c r="O48" s="50" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="8:15" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H49" s="3"/>
-      <c r="I49" s="68"/>
-      <c r="L49" s="68"/>
+      <c r="I49" s="51"/>
+      <c r="L49" s="51"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-      <c r="O49" s="68"/>
+      <c r="O49" s="51"/>
     </row>
     <row r="50" spans="8:15" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="8:15" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H51" s="24"/>
-      <c r="I51" s="67" t="s">
-        <v>74</v>
+      <c r="I51" s="50" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="8:15" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I52" s="68"/>
+      <c r="I52" s="51"/>
     </row>
     <row r="53" spans="8:15" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="54" spans="8:15" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2319,19 +2862,17 @@
     <row r="73" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="74" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="U7:V8"/>
-    <mergeCell ref="U13:V14"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="U19:V20"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L9:L10"/>
+  <mergeCells count="38">
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="I45:I46"/>
     <mergeCell ref="R38:R39"/>
     <mergeCell ref="R35:R36"/>
     <mergeCell ref="I40:I41"/>
@@ -2348,547 +2889,439 @@
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="O31:O32"/>
     <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="U19:V20"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="U7:V8"/>
+    <mergeCell ref="U13:V14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B034DE5A-C495-4627-ACF0-32E4C8FE1361}">
-  <dimension ref="B1:Z28"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="4" max="4" width="3.69921875" customWidth="1"/>
-    <col min="5" max="5" width="9.8984375" customWidth="1"/>
-    <col min="6" max="6" width="6.796875" customWidth="1"/>
-    <col min="18" max="18" width="4.19921875" customWidth="1"/>
-    <col min="19" max="19" width="9.296875" customWidth="1"/>
-    <col min="21" max="21" width="3.69921875" customWidth="1"/>
-    <col min="27" max="27" width="3.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="49"/>
-    </row>
-    <row r="3" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="6"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="2:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="R4" s="11"/>
-      <c r="V4" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="W4" s="31"/>
-    </row>
-    <row r="5" spans="2:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="J5" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="64"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z5" s="45"/>
-    </row>
-    <row r="6" spans="2:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="66"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="33"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="47"/>
-    </row>
-    <row r="7" spans="2:26" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="7"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="35"/>
-    </row>
-    <row r="8" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G8" s="6"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="7"/>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="T9" s="53"/>
-      <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="55"/>
-      <c r="V10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W10" s="37"/>
-      <c r="Y10" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z10" s="45"/>
-    </row>
-    <row r="11" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="4"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="47"/>
-    </row>
-    <row r="12" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="51"/>
-      <c r="M12" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="51"/>
-      <c r="P12" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="51"/>
-      <c r="V12" s="22"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="20"/>
-      <c r="K13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="V13" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="W13" s="41"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="41"/>
-      <c r="V14" s="16"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="7"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="14"/>
-      <c r="V15" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="W15" s="43"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="41"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" s="41"/>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="7"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="13"/>
-      <c r="Q17" s="14"/>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="41"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q18" s="41"/>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="N20" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="59"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="N21" s="14"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="N22" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="59"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="25" spans="4:17" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="4:17" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="4:17" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="4:17" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-  </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G4:H7"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="V4:W7"/>
-    <mergeCell ref="V10:W11"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="Y5:Z6"/>
-    <mergeCell ref="Y10:Z11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DD46B8-3A6A-4986-82F3-B83C412D6DAE}">
-  <dimension ref="B2:N18"/>
+  <dimension ref="B2:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
+      <c r="G3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O3" t="s">
+        <v>153</v>
+      </c>
+      <c r="P3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="P4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="L5" t="s">
-        <v>120</v>
-      </c>
-      <c r="N5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+      <c r="M5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="O10" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>127</v>
+      </c>
+      <c r="R11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>127</v>
+      </c>
+      <c r="R12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" t="s">
+        <v>127</v>
+      </c>
+      <c r="P13" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>128</v>
+      </c>
+      <c r="R13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="M14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>128</v>
+      </c>
+      <c r="R14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
+      <c r="M15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>127</v>
+      </c>
+      <c r="P15" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>127</v>
+      </c>
+      <c r="R15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>127</v>
+      </c>
+      <c r="P16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>127</v>
+      </c>
+      <c r="R16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="L9" t="s">
-        <v>122</v>
-      </c>
-      <c r="N9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
+      <c r="M17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>128</v>
+      </c>
+      <c r="R17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C18" t="s">
-        <v>46</v>
+      <c r="M18" t="s">
+        <v>142</v>
+      </c>
+      <c r="O18" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>128</v>
+      </c>
+      <c r="R18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="M19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>127</v>
+      </c>
+      <c r="R19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="M20" t="s">
+        <v>133</v>
+      </c>
+      <c r="O20" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>127</v>
+      </c>
+      <c r="R20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="M21" t="s">
+        <v>141</v>
+      </c>
+      <c r="O21" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>128</v>
+      </c>
+      <c r="R21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="M22" t="s">
+        <v>138</v>
+      </c>
+      <c r="O22" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>128</v>
+      </c>
+      <c r="R22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="M23" t="s">
+        <v>131</v>
+      </c>
+      <c r="O23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>127</v>
+      </c>
+      <c r="R23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="M24" t="s">
+        <v>137</v>
+      </c>
+      <c r="O24" t="s">
+        <v>128</v>
+      </c>
+      <c r="P24" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>127</v>
+      </c>
+      <c r="R24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="M25" t="s">
+        <v>135</v>
+      </c>
+      <c r="O25" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>128</v>
+      </c>
+      <c r="R25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="M26" t="s">
+        <v>136</v>
+      </c>
+      <c r="O26" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>128</v>
+      </c>
+      <c r="R26" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2901,7 +3334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF905E1E-4285-4095-B020-EF76BDA172CD}">
   <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2909,7 +3342,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
@@ -2928,102 +3361,102 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
         <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
         <v>82</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>83</v>
-      </c>
-      <c r="F9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
         <v>97</v>
       </c>
-      <c r="F12" t="s">
-        <v>98</v>
-      </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
         <v>86</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>87</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>88</v>
-      </c>
-      <c r="F15" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
         <v>91</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>92</v>
       </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
@@ -3037,17 +3470,17 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -3061,59 +3494,59 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
         <v>101</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>102</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>103</v>
-      </c>
-      <c r="F27" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
         <v>106</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>107</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>108</v>
-      </c>
-      <c r="F30" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
         <v>113</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>114</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>115</v>
-      </c>
-      <c r="F33" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/presentation_data/RTS.xlsx
+++ b/presentation_data/RTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\3학년1학기\신호처리 및 시스템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A800D9A-57D0-40FA-A3FD-C30072D88188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A826D14-66E7-4B8A-9C42-18124138E536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F51E13F1-0B81-4DC4-AA1E-48770D051AB2}"/>
+    <workbookView xWindow="768" yWindow="420" windowWidth="15924" windowHeight="11940" activeTab="2" xr2:uid="{F51E13F1-0B81-4DC4-AA1E-48770D051AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="162">
   <si>
     <t>간식백서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>호기심 때문에 이상한 종류의 간식을 먹어 본적이 있습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선택한 간식이 맛이 없다면 화가납니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -578,10 +576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>묵직한 남고생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>평화로운 자연인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -606,14 +600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여유로운 스님</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보수적인 야구선수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4차원 노찌롱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,7 +640,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>휘</t>
+    <t>음식점을 찾을 때 가격은 크게 고려하지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호기심 때문에 이상한 종류의 간식을 종종 도전하곤 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상남자 남고생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느긋한 스님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸근한 연예인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 아니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약간 아니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약간 그렇다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 그렇다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1473,84 +1503,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1660,6 +1612,84 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1999,69 +2029,69 @@
   <sheetData>
     <row r="1" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G3" s="6"/>
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="2:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="79"/>
+      <c r="H4" s="53"/>
       <c r="R4" s="11"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="79"/>
+      <c r="W4" s="53"/>
     </row>
     <row r="5" spans="2:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="81"/>
-      <c r="J5" s="84" t="s">
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="J5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="85"/>
+      <c r="K5" s="59"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="62"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="81"/>
+      <c r="M5" s="36"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="55"/>
       <c r="X5" s="10"/>
-      <c r="Y5" s="94" t="s">
+      <c r="Y5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="Z5" s="95"/>
+      <c r="Z5" s="69"/>
     </row>
     <row r="6" spans="2:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="64"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="87"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="62"/>
+      <c r="M6" s="36"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="81"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="87"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="55"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="61"/>
     </row>
     <row r="7" spans="2:26" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="82"/>
-      <c r="H7" s="83"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
       <c r="I7" s="7"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="83"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="57"/>
     </row>
     <row r="8" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G8" s="6"/>
@@ -2078,10 +2108,10 @@
       <c r="I9" s="7"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="74" t="s">
+      <c r="S9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="75"/>
+      <c r="T9" s="49"/>
       <c r="W9" s="4"/>
     </row>
     <row r="10" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2100,16 +2130,16 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="77"/>
-      <c r="V10" s="88" t="s">
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
+      <c r="V10" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="89"/>
-      <c r="Y10" s="94" t="s">
+      <c r="W10" s="63"/>
+      <c r="Y10" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="Z10" s="95"/>
+      <c r="Z10" s="69"/>
     </row>
     <row r="11" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="7"/>
@@ -2125,33 +2155,33 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="4"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="91"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="65"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="87"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="61"/>
     </row>
     <row r="12" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="73"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="72" t="s">
+      <c r="J12" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="73"/>
-      <c r="M12" s="72" t="s">
+      <c r="K12" s="47"/>
+      <c r="M12" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="73"/>
-      <c r="P12" s="72" t="s">
+      <c r="N12" s="47"/>
+      <c r="P12" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="73"/>
+      <c r="Q12" s="47"/>
       <c r="V12" s="22"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.4">
@@ -2165,36 +2195,36 @@
       <c r="K13" s="4"/>
       <c r="N13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="V13" s="65" t="s">
+      <c r="V13" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="W13" s="67"/>
+      <c r="W13" s="41"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="67"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="67"/>
+      <c r="K14" s="41"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="65" t="s">
+      <c r="M14" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="67"/>
+      <c r="N14" s="41"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="65" t="s">
+      <c r="P14" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="67"/>
+      <c r="Q14" s="41"/>
       <c r="V14" s="16"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.4">
@@ -2210,32 +2240,32 @@
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="14"/>
-      <c r="V15" s="92" t="s">
+      <c r="V15" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="W15" s="93"/>
+      <c r="W15" s="67"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="67"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="68" t="s">
+      <c r="M16" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="67"/>
+      <c r="N16" s="41"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="65" t="s">
+      <c r="P16" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Q16" s="67"/>
+      <c r="Q16" s="41"/>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.4">
       <c r="D17" s="19"/>
@@ -2251,26 +2281,26 @@
       <c r="Q17" s="14"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="67"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="69" t="s">
+      <c r="M18" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="67"/>
+      <c r="N18" s="41"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="65" t="s">
+      <c r="P18" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q18" s="67"/>
+      <c r="Q18" s="41"/>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.4">
       <c r="D19" s="19"/>
@@ -2296,11 +2326,11 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
-      <c r="N20" s="65" t="s">
+      <c r="N20" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="66"/>
-      <c r="P20" s="67"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="41"/>
       <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.4">
@@ -2323,11 +2353,11 @@
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-      <c r="N22" s="65" t="s">
+      <c r="N22" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O22" s="66"/>
-      <c r="P22" s="67"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="41"/>
       <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.4">
@@ -2392,8 +2422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768FF83E-BCCE-4679-9179-793539AC1CC9}">
   <dimension ref="C1:V74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S40" sqref="Q34:S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2420,13 +2450,13 @@
     <row r="2" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="3:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H3" s="26"/>
-      <c r="I3" s="36" t="s">
-        <v>68</v>
+      <c r="I3" s="71" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G4" s="27"/>
-      <c r="I4" s="35"/>
+      <c r="I4" s="72"/>
     </row>
     <row r="5" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G5" s="27"/>
@@ -2439,89 +2469,89 @@
       <c r="J6" s="10"/>
       <c r="K6" s="26"/>
       <c r="L6" s="97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M6" s="26"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="34" t="s">
-        <v>116</v>
+      <c r="O6" s="96" t="s">
+        <v>115</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="32"/>
-      <c r="R6" s="36" t="s">
-        <v>117</v>
+      <c r="R6" s="71" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G7" s="27"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="35"/>
-      <c r="O7" s="35"/>
+      <c r="L7" s="72"/>
+      <c r="O7" s="72"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="35"/>
-      <c r="U7" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="V7" s="38"/>
+      <c r="R7" s="72"/>
+      <c r="U7" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" s="74"/>
     </row>
     <row r="8" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G8" s="27"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="40"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="76"/>
     </row>
     <row r="9" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="81" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="81" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="52" t="s">
-        <v>64</v>
+      <c r="I9" s="83" t="s">
+        <v>63</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="83" t="s">
         <v>28</v>
       </c>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="51"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="9"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="51"/>
+      <c r="F10" s="82"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="53"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="17"/>
-      <c r="L10" s="53"/>
+      <c r="L10" s="84"/>
       <c r="M10" s="9"/>
-      <c r="U10" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="V10" s="55"/>
+      <c r="U10" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="V10" s="86"/>
     </row>
     <row r="11" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E11" s="4"/>
       <c r="H11" s="4"/>
       <c r="J11" s="17"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="57"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="88"/>
     </row>
     <row r="12" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E12" s="4"/>
       <c r="H12" s="4"/>
       <c r="J12" s="17"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="52" t="s">
+      <c r="L12" s="83" t="s">
         <v>27</v>
       </c>
       <c r="M12" s="9"/>
@@ -2529,18 +2559,18 @@
     <row r="13" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="L13" s="53"/>
+      <c r="L13" s="84"/>
       <c r="M13" s="9"/>
-      <c r="U13" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="V13" s="42"/>
+      <c r="U13" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="V13" s="78"/>
     </row>
     <row r="14" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="44"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="80"/>
     </row>
     <row r="15" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E15" s="4"/>
@@ -2549,74 +2579,74 @@
     <row r="16" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="L16" s="52" t="s">
-        <v>46</v>
+      <c r="L16" s="83" t="s">
+        <v>45</v>
       </c>
       <c r="M16" s="9"/>
-      <c r="U16" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="V16" s="46"/>
+      <c r="U16" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" s="92"/>
     </row>
     <row r="17" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E17" s="4"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="58" t="s">
-        <v>65</v>
+      <c r="I17" s="89" t="s">
+        <v>64</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="53"/>
+      <c r="L17" s="84"/>
       <c r="M17" s="9"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="48"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="94"/>
     </row>
     <row r="18" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E18" s="4"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="59"/>
+      <c r="I18" s="90"/>
       <c r="J18" s="21"/>
     </row>
     <row r="19" spans="5:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" s="4"/>
       <c r="H19" s="4"/>
       <c r="J19" s="17"/>
-      <c r="L19" s="58" t="s">
-        <v>50</v>
+      <c r="L19" s="89" t="s">
+        <v>49</v>
       </c>
       <c r="M19" s="9"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
     </row>
     <row r="20" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E20" s="4"/>
       <c r="H20" s="4"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="59"/>
+      <c r="L20" s="90"/>
       <c r="M20" s="9"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
     </row>
     <row r="21" spans="5:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E21" s="4"/>
       <c r="H21" s="4"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="36" t="s">
-        <v>52</v>
+      <c r="O21" s="71" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E22" s="4"/>
       <c r="H22" s="4"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="35"/>
+      <c r="O22" s="72"/>
     </row>
     <row r="23" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E23" s="4"/>
       <c r="H23" s="4"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="52" t="s">
-        <v>47</v>
+      <c r="L23" s="83" t="s">
+        <v>46</v>
       </c>
       <c r="M23" s="28"/>
       <c r="N23" s="4"/>
@@ -2624,48 +2654,48 @@
     <row r="24" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E24" s="4"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="58" t="s">
-        <v>66</v>
+      <c r="I24" s="89" t="s">
+        <v>65</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="53"/>
+      <c r="L24" s="84"/>
       <c r="M24" s="23"/>
       <c r="N24" s="24"/>
-      <c r="O24" s="52" t="s">
-        <v>51</v>
+      <c r="O24" s="83" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="59"/>
+      <c r="I25" s="90"/>
       <c r="K25" s="4"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="53"/>
+      <c r="O25" s="84"/>
     </row>
     <row r="26" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E26" s="4"/>
       <c r="H26" s="4"/>
       <c r="K26" s="24"/>
-      <c r="L26" s="58" t="s">
-        <v>48</v>
+      <c r="L26" s="89" t="s">
+        <v>47</v>
       </c>
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="L27" s="59"/>
+      <c r="L27" s="90"/>
       <c r="N27" s="24"/>
-      <c r="O27" s="52" t="s">
-        <v>49</v>
+      <c r="O27" s="83" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="O28" s="53"/>
+      <c r="O28" s="84"/>
     </row>
     <row r="29" spans="5:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="4"/>
@@ -2679,22 +2709,22 @@
       <c r="E31" s="4"/>
       <c r="H31" s="4"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="36" t="s">
-        <v>53</v>
+      <c r="O31" s="71" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E32" s="4"/>
       <c r="H32" s="4"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="35"/>
+      <c r="O32" s="72"/>
     </row>
     <row r="33" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E33" s="4"/>
       <c r="H33" s="4"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="52" t="s">
-        <v>47</v>
+      <c r="L33" s="83" t="s">
+        <v>46</v>
       </c>
       <c r="M33" s="28"/>
       <c r="N33" s="4"/>
@@ -2702,48 +2732,48 @@
     <row r="34" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E34" s="4"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="58" t="s">
-        <v>67</v>
+      <c r="I34" s="89" t="s">
+        <v>66</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="53"/>
+      <c r="L34" s="84"/>
       <c r="M34" s="23"/>
       <c r="N34" s="24"/>
-      <c r="O34" s="52" t="s">
-        <v>54</v>
+      <c r="O34" s="83" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E35" s="4"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="59"/>
+      <c r="I35" s="90"/>
       <c r="K35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="53"/>
+      <c r="O35" s="84"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="36" t="s">
-        <v>56</v>
+      <c r="R35" s="71" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E36" s="4"/>
       <c r="H36" s="4"/>
       <c r="K36" s="24"/>
-      <c r="L36" s="58" t="s">
-        <v>48</v>
+      <c r="L36" s="89" t="s">
+        <v>47</v>
       </c>
       <c r="N36" s="4"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="35"/>
+      <c r="R36" s="72"/>
     </row>
     <row r="37" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="L37" s="59"/>
+      <c r="L37" s="90"/>
       <c r="N37" s="24"/>
-      <c r="O37" s="52" t="s">
-        <v>55</v>
+      <c r="O37" s="83" t="s">
+        <v>54</v>
       </c>
       <c r="P37" s="10"/>
       <c r="Q37" s="4"/>
@@ -2751,27 +2781,27 @@
     <row r="38" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="O38" s="53"/>
+      <c r="O38" s="84"/>
       <c r="Q38" s="24"/>
-      <c r="R38" s="52" t="s">
-        <v>57</v>
+      <c r="R38" s="83" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="R39" s="53"/>
+      <c r="R39" s="84"/>
     </row>
     <row r="40" spans="5:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E40" s="4"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="50" t="s">
-        <v>72</v>
+      <c r="I40" s="81" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E41" s="4"/>
-      <c r="I41" s="51"/>
+      <c r="I41" s="82"/>
     </row>
     <row r="42" spans="5:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E42" s="4"/>
@@ -2784,20 +2814,20 @@
     </row>
     <row r="45" spans="5:18" ht="7.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E45" s="24"/>
-      <c r="F45" s="50" t="s">
-        <v>58</v>
+      <c r="F45" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="50" t="s">
-        <v>70</v>
+      <c r="I45" s="81" t="s">
+        <v>69</v>
       </c>
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="5:18" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F46" s="51"/>
+      <c r="F46" s="82"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="51"/>
+      <c r="I46" s="82"/>
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="5:18" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2806,38 +2836,38 @@
     </row>
     <row r="48" spans="5:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H48" s="24"/>
-      <c r="I48" s="50" t="s">
-        <v>71</v>
+      <c r="I48" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
-      <c r="L48" s="50" t="s">
-        <v>60</v>
+      <c r="L48" s="81" t="s">
+        <v>59</v>
       </c>
       <c r="N48" s="7"/>
-      <c r="O48" s="50" t="s">
-        <v>59</v>
+      <c r="O48" s="81" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="8:15" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H49" s="3"/>
-      <c r="I49" s="51"/>
-      <c r="L49" s="51"/>
+      <c r="I49" s="82"/>
+      <c r="L49" s="82"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-      <c r="O49" s="51"/>
+      <c r="O49" s="82"/>
     </row>
     <row r="50" spans="8:15" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="8:15" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H51" s="24"/>
-      <c r="I51" s="50" t="s">
-        <v>73</v>
+      <c r="I51" s="81" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="8:15" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I52" s="51"/>
+      <c r="I52" s="82"/>
     </row>
     <row r="53" spans="8:15" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="54" spans="8:15" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2863,14 +2893,14 @@
     <row r="74" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="O6:O7"/>
     <mergeCell ref="O48:O49"/>
     <mergeCell ref="L48:L49"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="O27:O28"/>
     <mergeCell ref="L26:L27"/>
-    <mergeCell ref="I24:I25"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="R38:R39"/>
@@ -2891,16 +2921,16 @@
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="U16:V17"/>
     <mergeCell ref="U19:V20"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="U7:V8"/>
+    <mergeCell ref="U13:V14"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="U7:V8"/>
-    <mergeCell ref="U13:V14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2909,424 +2939,798 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DD46B8-3A6A-4986-82F3-B83C412D6DAE}">
-  <dimension ref="B2:R26"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
       <c r="C2" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2">
+        <v>-16</v>
+      </c>
+      <c r="L2">
+        <v>-11</v>
+      </c>
+      <c r="M2">
+        <v>-6</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
+      <c r="K3">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>-5</v>
+      </c>
+      <c r="P3">
+        <v>-11</v>
+      </c>
+      <c r="Q3">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K4">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>-5</v>
+      </c>
+      <c r="P4">
+        <v>-11</v>
+      </c>
+      <c r="Q4">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7">
+        <v>-13</v>
+      </c>
+      <c r="L7">
+        <v>-8</v>
+      </c>
+      <c r="M7">
+        <v>-4</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>9</v>
+      </c>
+      <c r="Q7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8">
+        <v>-13</v>
+      </c>
+      <c r="L8">
+        <v>-8</v>
+      </c>
+      <c r="M8">
+        <v>-4</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9">
+        <v>-12</v>
+      </c>
+      <c r="L9">
+        <v>-8</v>
+      </c>
+      <c r="M9">
+        <v>-4</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10">
+        <f>-12</f>
+        <v>-12</v>
+      </c>
+      <c r="L10">
+        <v>-8</v>
+      </c>
+      <c r="M10">
+        <v>-4</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12">
+        <v>-12</v>
+      </c>
+      <c r="L12">
+        <v>-8</v>
+      </c>
+      <c r="M12">
+        <v>-4</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>-12</v>
+      </c>
+      <c r="L13">
+        <v>-8</v>
+      </c>
+      <c r="M13">
+        <v>-4</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14">
+        <v>-13</v>
+      </c>
+      <c r="L14">
+        <v>-8</v>
+      </c>
+      <c r="M14">
+        <v>-4</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>8</v>
+      </c>
+      <c r="Q14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15">
+        <v>-13</v>
+      </c>
+      <c r="L15">
+        <v>-8</v>
+      </c>
+      <c r="M15">
+        <v>-4</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>-12</v>
+      </c>
+      <c r="L17">
+        <v>-8</v>
+      </c>
+      <c r="M17">
+        <v>-4</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>8</v>
+      </c>
+      <c r="Q17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>-12</v>
+      </c>
+      <c r="L18">
+        <v>-8</v>
+      </c>
+      <c r="M18">
+        <v>-4</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>8</v>
+      </c>
+      <c r="Q18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>-13</v>
+      </c>
+      <c r="L19">
+        <v>-8</v>
+      </c>
+      <c r="M19">
+        <v>-4</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>9</v>
+      </c>
+      <c r="Q19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>-13</v>
+      </c>
+      <c r="L20">
+        <v>-8</v>
+      </c>
+      <c r="M20">
+        <v>-4</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>8</v>
+      </c>
+      <c r="Q20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D33" t="s">
         <v>154</v>
       </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>145</v>
-      </c>
-      <c r="N3" t="s">
-        <v>151</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D37" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" t="s">
+        <v>127</v>
+      </c>
+      <c r="I37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D38" t="s">
         <v>153</v>
       </c>
-      <c r="P3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>150</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="F38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" t="s">
+        <v>126</v>
+      </c>
+      <c r="I39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D40" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D45" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>119</v>
-      </c>
-      <c r="P4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="L5" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" t="s">
-        <v>149</v>
-      </c>
-      <c r="P5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" t="s">
-        <v>146</v>
-      </c>
-      <c r="P6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="O10" t="s">
-        <v>129</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="F45" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" t="s">
+        <v>127</v>
+      </c>
+      <c r="I45" t="s">
         <v>126</v>
       </c>
-      <c r="Q10" t="s">
-        <v>122</v>
-      </c>
-      <c r="R10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" t="s">
-        <v>123</v>
-      </c>
-      <c r="O11" t="s">
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D46" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" t="s">
         <v>127</v>
       </c>
-      <c r="P11" t="s">
+      <c r="G46" t="s">
         <v>127</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="H46" t="s">
         <v>127</v>
       </c>
-      <c r="R11" t="s">
+      <c r="I46" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" t="s">
-        <v>124</v>
-      </c>
-      <c r="O12" t="s">
-        <v>127</v>
-      </c>
-      <c r="P12" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>127</v>
-      </c>
-      <c r="R12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" t="s">
-        <v>143</v>
-      </c>
-      <c r="O13" t="s">
-        <v>127</v>
-      </c>
-      <c r="P13" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>128</v>
-      </c>
-      <c r="R13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="M14" t="s">
-        <v>134</v>
-      </c>
-      <c r="O14" t="s">
-        <v>127</v>
-      </c>
-      <c r="P14" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>128</v>
-      </c>
-      <c r="R14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" t="s">
-        <v>144</v>
-      </c>
-      <c r="O15" t="s">
-        <v>127</v>
-      </c>
-      <c r="P15" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>127</v>
-      </c>
-      <c r="R15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" t="s">
-        <v>140</v>
-      </c>
-      <c r="O16" t="s">
-        <v>127</v>
-      </c>
-      <c r="P16" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>127</v>
-      </c>
-      <c r="R16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" t="s">
-        <v>139</v>
-      </c>
-      <c r="O17" t="s">
-        <v>127</v>
-      </c>
-      <c r="P17" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>128</v>
-      </c>
-      <c r="R17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" t="s">
-        <v>142</v>
-      </c>
-      <c r="O18" t="s">
-        <v>127</v>
-      </c>
-      <c r="P18" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>128</v>
-      </c>
-      <c r="R18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="M19" t="s">
-        <v>132</v>
-      </c>
-      <c r="O19" t="s">
-        <v>128</v>
-      </c>
-      <c r="P19" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>127</v>
-      </c>
-      <c r="R19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="M20" t="s">
-        <v>133</v>
-      </c>
-      <c r="O20" t="s">
-        <v>128</v>
-      </c>
-      <c r="P20" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>127</v>
-      </c>
-      <c r="R20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="M21" t="s">
-        <v>141</v>
-      </c>
-      <c r="O21" t="s">
-        <v>128</v>
-      </c>
-      <c r="P21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>128</v>
-      </c>
-      <c r="R21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="M22" t="s">
-        <v>138</v>
-      </c>
-      <c r="O22" t="s">
-        <v>128</v>
-      </c>
-      <c r="P22" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>128</v>
-      </c>
-      <c r="R22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="M23" t="s">
-        <v>131</v>
-      </c>
-      <c r="O23" t="s">
-        <v>128</v>
-      </c>
-      <c r="P23" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>127</v>
-      </c>
-      <c r="R23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="M24" t="s">
-        <v>137</v>
-      </c>
-      <c r="O24" t="s">
-        <v>128</v>
-      </c>
-      <c r="P24" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>127</v>
-      </c>
-      <c r="R24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="M25" t="s">
-        <v>135</v>
-      </c>
-      <c r="O25" t="s">
-        <v>128</v>
-      </c>
-      <c r="P25" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>128</v>
-      </c>
-      <c r="R25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="M26" t="s">
-        <v>136</v>
-      </c>
-      <c r="O26" t="s">
-        <v>128</v>
-      </c>
-      <c r="P26" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>128</v>
-      </c>
-      <c r="R26" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3342,7 +3746,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
@@ -3361,102 +3765,102 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
         <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
         <v>81</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>82</v>
-      </c>
-      <c r="F9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" t="s">
         <v>96</v>
       </c>
-      <c r="F12" t="s">
-        <v>97</v>
-      </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
         <v>85</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>86</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
         <v>90</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>91</v>
       </c>
-      <c r="E18" t="s">
-        <v>92</v>
-      </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
@@ -3470,17 +3874,17 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -3494,59 +3898,59 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" t="s">
         <v>100</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>101</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>102</v>
-      </c>
-      <c r="F27" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
         <v>105</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>106</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>107</v>
-      </c>
-      <c r="F30" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
         <v>112</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>113</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>114</v>
-      </c>
-      <c r="F33" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/presentation_data/RTS.xlsx
+++ b/presentation_data/RTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\3학년1학기\신호처리 및 시스템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A826D14-66E7-4B8A-9C42-18124138E536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33263DC-AA57-4E9D-B540-94770FBA3B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="420" windowWidth="15924" windowHeight="11940" activeTab="2" xr2:uid="{F51E13F1-0B81-4DC4-AA1E-48770D051AB2}"/>
+    <workbookView xWindow="6936" yWindow="420" windowWidth="15924" windowHeight="11940" activeTab="2" xr2:uid="{F51E13F1-0B81-4DC4-AA1E-48770D051AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="196">
   <si>
     <t>간식백서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -685,6 +685,142 @@
   </si>
   <si>
     <t>매우 그렇다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세상을 살아가는데에 음식과 관련해 어떠한 것도 관심이 없는 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성격이 부드럽고 따뜻해 주변 사람들을 편안하게 해주는 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늘 긍정적이며 에너지가 넘쳐 주위를 밝게 환기시켜주는 에너자이져형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창의적이며 항상 웃음거리를 찾아다니는 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변에서 뭐를 먹자하던 항상 ok하며 잘먹는 모습이 보기 좋은 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도전에 앞서 사전조사를 중시하며 근거를 바탕으로 행동하는 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 것 하나하나에 의미를 두며 여러 경험들을 얻는 것을 좋아하는 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성적인 판단을 통하여 평소 음식 선택에도 실패가 잘 없는 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떠한 일이든 일어날 수 있다는 마음가짐으로 뭐든 그러려니 하는 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 직관을 믿고 그에 따른 성취에 큰 기쁨을 얻는 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떠한 상황에서도 더 좋은 방향으로 나아갈려고 하며 한번 관심을 갖기 시작한 일은 반드시 성취 할려하는 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과감한 결단을 잘 내리며 몸으로 직접 부딪히며 도전하는 것을 즐기는 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획 세우는 것을 좋아하며 계획에 따라 행동하였을 때 성취감을 느끼는 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배푸는 것을 좋아하며 혼자 있는 것 보단 다같이 즐기는 것을 선호하는 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도전을 두려워하지 않으며 음식에 진심인 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항상 새로운 것을 찾아 시도하거나 도전하는 성격의 방랑자형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1503,28 +1639,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1533,91 +1735,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1642,57 +1829,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2029,69 +2165,69 @@
   <sheetData>
     <row r="1" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="45"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G3" s="6"/>
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="2:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="53"/>
+      <c r="H4" s="35"/>
       <c r="R4" s="11"/>
-      <c r="V4" s="52" t="s">
+      <c r="V4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="53"/>
+      <c r="W4" s="35"/>
     </row>
     <row r="5" spans="2:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-      <c r="J5" s="58" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="J5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="59"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="36"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="55"/>
+      <c r="M5" s="68"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="37"/>
       <c r="X5" s="10"/>
-      <c r="Y5" s="68" t="s">
+      <c r="Y5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Z5" s="69"/>
+      <c r="Z5" s="49"/>
     </row>
     <row r="6" spans="2:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="38"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="51"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="36"/>
+      <c r="M6" s="68"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="55"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="61"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="37"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="51"/>
     </row>
     <row r="7" spans="2:26" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="56"/>
-      <c r="H7" s="57"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="7"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="57"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="39"/>
     </row>
     <row r="8" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G8" s="6"/>
@@ -2108,10 +2244,10 @@
       <c r="I9" s="7"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="48" t="s">
+      <c r="S9" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="49"/>
+      <c r="T9" s="57"/>
       <c r="W9" s="4"/>
     </row>
     <row r="10" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2130,16 +2266,16 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="51"/>
-      <c r="V10" s="62" t="s">
+      <c r="S10" s="58"/>
+      <c r="T10" s="59"/>
+      <c r="V10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="63"/>
-      <c r="Y10" s="68" t="s">
+      <c r="W10" s="41"/>
+      <c r="Y10" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="Z10" s="69"/>
+      <c r="Z10" s="49"/>
     </row>
     <row r="11" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="7"/>
@@ -2155,33 +2291,33 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="4"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="65"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="43"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="61"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="51"/>
     </row>
     <row r="12" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="47"/>
+      <c r="H12" s="55"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="M12" s="46" t="s">
+      <c r="K12" s="55"/>
+      <c r="M12" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="47"/>
-      <c r="P12" s="46" t="s">
+      <c r="N12" s="55"/>
+      <c r="P12" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="47"/>
+      <c r="Q12" s="55"/>
       <c r="V12" s="22"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.4">
@@ -2195,36 +2331,36 @@
       <c r="K13" s="4"/>
       <c r="N13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="V13" s="39" t="s">
+      <c r="V13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="W13" s="41"/>
+      <c r="W13" s="45"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="41"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="41"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="41"/>
+      <c r="N14" s="45"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="41"/>
+      <c r="Q14" s="45"/>
       <c r="V14" s="16"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.4">
@@ -2240,32 +2376,32 @@
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="14"/>
-      <c r="V15" s="66" t="s">
+      <c r="V15" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="W15" s="67"/>
+      <c r="W15" s="47"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="41"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="41"/>
+      <c r="N16" s="45"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="39" t="s">
+      <c r="P16" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Q16" s="41"/>
+      <c r="Q16" s="45"/>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.4">
       <c r="D17" s="19"/>
@@ -2281,26 +2417,26 @@
       <c r="Q17" s="14"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="41"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="43" t="s">
+      <c r="M18" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="41"/>
+      <c r="N18" s="45"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="39" t="s">
+      <c r="P18" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="Q18" s="41"/>
+      <c r="Q18" s="45"/>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.4">
       <c r="D19" s="19"/>
@@ -2326,11 +2462,11 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
-      <c r="N20" s="39" t="s">
+      <c r="N20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="40"/>
-      <c r="P20" s="41"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="45"/>
       <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.4">
@@ -2353,11 +2489,11 @@
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="O22" s="40"/>
-      <c r="P22" s="41"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="45"/>
       <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.4">
@@ -2379,20 +2515,12 @@
     <row r="28" spans="4:17" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="V4:W7"/>
-    <mergeCell ref="V10:W11"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="Y5:Z6"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G4:H7"/>
-    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="N20:P20"/>
     <mergeCell ref="N22:P22"/>
     <mergeCell ref="G18:H18"/>
@@ -2405,12 +2533,20 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G4:H7"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="V4:W7"/>
+    <mergeCell ref="V10:W11"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="Y10:Z11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2422,8 +2558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768FF83E-BCCE-4679-9179-793539AC1CC9}">
   <dimension ref="C1:V74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S40" sqref="Q34:S40"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2450,13 +2586,13 @@
     <row r="2" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="3:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H3" s="26"/>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="80" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G4" s="27"/>
-      <c r="I4" s="72"/>
+      <c r="I4" s="74"/>
     </row>
     <row r="5" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G5" s="27"/>
@@ -2468,17 +2604,17 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="97" t="s">
+      <c r="L6" s="77" t="s">
         <v>120</v>
       </c>
       <c r="M6" s="26"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="96" t="s">
+      <c r="O6" s="73" t="s">
         <v>115</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="32"/>
-      <c r="R6" s="71" t="s">
+      <c r="R6" s="80" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2486,72 +2622,72 @@
       <c r="G7" s="27"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="72"/>
-      <c r="O7" s="72"/>
+      <c r="L7" s="74"/>
+      <c r="O7" s="74"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="72"/>
-      <c r="U7" s="73" t="s">
+      <c r="R7" s="74"/>
+      <c r="U7" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="V7" s="74"/>
+      <c r="V7" s="91"/>
     </row>
     <row r="8" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G8" s="27"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="76"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="93"/>
     </row>
     <row r="9" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="75" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="75" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="78" t="s">
         <v>63</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="83" t="s">
+      <c r="L9" s="78" t="s">
         <v>28</v>
       </c>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="82"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="9"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="82"/>
+      <c r="F10" s="76"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="84"/>
+      <c r="I10" s="79"/>
       <c r="J10" s="17"/>
-      <c r="L10" s="84"/>
+      <c r="L10" s="79"/>
       <c r="M10" s="9"/>
-      <c r="U10" s="85" t="s">
+      <c r="U10" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="V10" s="86"/>
+      <c r="V10" s="82"/>
     </row>
     <row r="11" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E11" s="4"/>
       <c r="H11" s="4"/>
       <c r="J11" s="17"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="88"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="84"/>
     </row>
     <row r="12" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E12" s="4"/>
       <c r="H12" s="4"/>
       <c r="J12" s="17"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="83" t="s">
+      <c r="L12" s="78" t="s">
         <v>27</v>
       </c>
       <c r="M12" s="9"/>
@@ -2559,18 +2695,18 @@
     <row r="13" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="L13" s="84"/>
+      <c r="L13" s="79"/>
       <c r="M13" s="9"/>
-      <c r="U13" s="77" t="s">
+      <c r="U13" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="V13" s="78"/>
+      <c r="V13" s="95"/>
     </row>
     <row r="14" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="80"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="97"/>
     </row>
     <row r="15" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E15" s="4"/>
@@ -2579,59 +2715,59 @@
     <row r="16" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="L16" s="83" t="s">
+      <c r="L16" s="78" t="s">
         <v>45</v>
       </c>
       <c r="M16" s="9"/>
-      <c r="U16" s="91" t="s">
+      <c r="U16" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="V16" s="92"/>
+      <c r="V16" s="86"/>
     </row>
     <row r="17" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E17" s="4"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="89" t="s">
+      <c r="I17" s="71" t="s">
         <v>64</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="84"/>
+      <c r="L17" s="79"/>
       <c r="M17" s="9"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="94"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="88"/>
     </row>
     <row r="18" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E18" s="4"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="90"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="21"/>
     </row>
     <row r="19" spans="5:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" s="4"/>
       <c r="H19" s="4"/>
       <c r="J19" s="17"/>
-      <c r="L19" s="89" t="s">
+      <c r="L19" s="71" t="s">
         <v>49</v>
       </c>
       <c r="M19" s="9"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
     </row>
     <row r="20" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E20" s="4"/>
       <c r="H20" s="4"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="90"/>
+      <c r="L20" s="72"/>
       <c r="M20" s="9"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
     </row>
     <row r="21" spans="5:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E21" s="4"/>
       <c r="H21" s="4"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="71" t="s">
+      <c r="O21" s="80" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2639,13 +2775,13 @@
       <c r="E22" s="4"/>
       <c r="H22" s="4"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="72"/>
+      <c r="O22" s="74"/>
     </row>
     <row r="23" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E23" s="4"/>
       <c r="H23" s="4"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="83" t="s">
+      <c r="L23" s="78" t="s">
         <v>46</v>
       </c>
       <c r="M23" s="28"/>
@@ -2654,31 +2790,31 @@
     <row r="24" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E24" s="4"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="89" t="s">
+      <c r="I24" s="71" t="s">
         <v>65</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="84"/>
+      <c r="L24" s="79"/>
       <c r="M24" s="23"/>
       <c r="N24" s="24"/>
-      <c r="O24" s="83" t="s">
+      <c r="O24" s="78" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="90"/>
+      <c r="I25" s="72"/>
       <c r="K25" s="4"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="84"/>
+      <c r="O25" s="79"/>
     </row>
     <row r="26" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E26" s="4"/>
       <c r="H26" s="4"/>
       <c r="K26" s="24"/>
-      <c r="L26" s="89" t="s">
+      <c r="L26" s="71" t="s">
         <v>47</v>
       </c>
       <c r="N26" s="4"/>
@@ -2686,16 +2822,16 @@
     <row r="27" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="L27" s="90"/>
+      <c r="L27" s="72"/>
       <c r="N27" s="24"/>
-      <c r="O27" s="83" t="s">
+      <c r="O27" s="78" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="O28" s="84"/>
+      <c r="O28" s="79"/>
     </row>
     <row r="29" spans="5:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="4"/>
@@ -2709,7 +2845,7 @@
       <c r="E31" s="4"/>
       <c r="H31" s="4"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="71" t="s">
+      <c r="O31" s="80" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2717,13 +2853,13 @@
       <c r="E32" s="4"/>
       <c r="H32" s="4"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="72"/>
+      <c r="O32" s="74"/>
     </row>
     <row r="33" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E33" s="4"/>
       <c r="H33" s="4"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="83" t="s">
+      <c r="L33" s="78" t="s">
         <v>46</v>
       </c>
       <c r="M33" s="28"/>
@@ -2732,27 +2868,27 @@
     <row r="34" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E34" s="4"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="89" t="s">
+      <c r="I34" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="84"/>
+      <c r="L34" s="79"/>
       <c r="M34" s="23"/>
       <c r="N34" s="24"/>
-      <c r="O34" s="83" t="s">
+      <c r="O34" s="78" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E35" s="4"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="90"/>
+      <c r="I35" s="72"/>
       <c r="K35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="84"/>
+      <c r="O35" s="79"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="71" t="s">
+      <c r="R35" s="80" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2760,19 +2896,19 @@
       <c r="E36" s="4"/>
       <c r="H36" s="4"/>
       <c r="K36" s="24"/>
-      <c r="L36" s="89" t="s">
+      <c r="L36" s="71" t="s">
         <v>47</v>
       </c>
       <c r="N36" s="4"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="72"/>
+      <c r="R36" s="74"/>
     </row>
     <row r="37" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="L37" s="90"/>
+      <c r="L37" s="72"/>
       <c r="N37" s="24"/>
-      <c r="O37" s="83" t="s">
+      <c r="O37" s="78" t="s">
         <v>54</v>
       </c>
       <c r="P37" s="10"/>
@@ -2781,27 +2917,27 @@
     <row r="38" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="O38" s="84"/>
+      <c r="O38" s="79"/>
       <c r="Q38" s="24"/>
-      <c r="R38" s="83" t="s">
+      <c r="R38" s="78" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="R39" s="84"/>
+      <c r="R39" s="79"/>
     </row>
     <row r="40" spans="5:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E40" s="4"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="81" t="s">
+      <c r="I40" s="75" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="41" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E41" s="4"/>
-      <c r="I41" s="82"/>
+      <c r="I41" s="76"/>
     </row>
     <row r="42" spans="5:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E42" s="4"/>
@@ -2814,20 +2950,20 @@
     </row>
     <row r="45" spans="5:18" ht="7.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E45" s="24"/>
-      <c r="F45" s="81" t="s">
+      <c r="F45" s="75" t="s">
         <v>57</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="81" t="s">
+      <c r="I45" s="75" t="s">
         <v>69</v>
       </c>
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="5:18" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F46" s="82"/>
+      <c r="F46" s="76"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="82"/>
+      <c r="I46" s="76"/>
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="5:18" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2836,38 +2972,38 @@
     </row>
     <row r="48" spans="5:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H48" s="24"/>
-      <c r="I48" s="81" t="s">
+      <c r="I48" s="75" t="s">
         <v>70</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
-      <c r="L48" s="81" t="s">
+      <c r="L48" s="75" t="s">
         <v>59</v>
       </c>
       <c r="N48" s="7"/>
-      <c r="O48" s="81" t="s">
+      <c r="O48" s="75" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="8:15" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H49" s="3"/>
-      <c r="I49" s="82"/>
-      <c r="L49" s="82"/>
+      <c r="I49" s="76"/>
+      <c r="L49" s="76"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-      <c r="O49" s="82"/>
+      <c r="O49" s="76"/>
     </row>
     <row r="50" spans="8:15" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="8:15" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H51" s="24"/>
-      <c r="I51" s="81" t="s">
+      <c r="I51" s="75" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="8:15" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I52" s="82"/>
+      <c r="I52" s="76"/>
     </row>
     <row r="53" spans="8:15" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="54" spans="8:15" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2893,19 +3029,15 @@
     <row r="74" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="U7:V8"/>
+    <mergeCell ref="U13:V14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="I51:I52"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="L33:L34"/>
@@ -2922,15 +3054,19 @@
     <mergeCell ref="U16:V17"/>
     <mergeCell ref="U19:V20"/>
     <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="U7:V8"/>
-    <mergeCell ref="U13:V14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="L26:L27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2939,15 +3075,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DD46B8-3A6A-4986-82F3-B83C412D6DAE}">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="11" max="17" width="10.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
       <c r="K1" t="s">
         <v>155</v>
       </c>
@@ -2981,25 +3123,22 @@
         <v>151</v>
       </c>
       <c r="K2">
-        <v>-16</v>
+        <v>-8</v>
       </c>
       <c r="L2">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="M2">
-        <v>-6</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="O2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q2">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
@@ -3010,22 +3149,22 @@
         <v>32</v>
       </c>
       <c r="K3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O3">
+        <v>-3</v>
+      </c>
+      <c r="P3">
         <v>-5</v>
       </c>
-      <c r="P3">
-        <v>-11</v>
-      </c>
       <c r="Q3">
-        <v>-17</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -3036,22 +3175,25 @@
         <v>33</v>
       </c>
       <c r="K4">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>-1</v>
       </c>
       <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
         <v>-5</v>
       </c>
-      <c r="P4">
-        <v>-11</v>
-      </c>
       <c r="Q4">
-        <v>-17</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -3065,25 +3207,22 @@
         <v>35</v>
       </c>
       <c r="K7">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="L7">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="M7">
-        <v>-4</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -3094,22 +3233,22 @@
         <v>37</v>
       </c>
       <c r="K8">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="L8">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="M8">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -3120,22 +3259,22 @@
         <v>39</v>
       </c>
       <c r="K9">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="L9">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="M9">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
         <v>4</v>
       </c>
-      <c r="P9">
-        <v>8</v>
-      </c>
       <c r="Q9">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
@@ -3146,23 +3285,22 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <f>-12</f>
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="L10">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="M10">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
         <v>4</v>
       </c>
-      <c r="P10">
-        <v>8</v>
-      </c>
       <c r="Q10">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
@@ -3176,22 +3314,22 @@
         <v>34</v>
       </c>
       <c r="K12">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="L12">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="M12">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
         <v>4</v>
       </c>
-      <c r="P12">
-        <v>8</v>
-      </c>
       <c r="Q12">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
@@ -3202,25 +3340,22 @@
         <v>38</v>
       </c>
       <c r="K13">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="L13">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="M13">
-        <v>-4</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
         <v>4</v>
       </c>
-      <c r="P13">
-        <v>8</v>
-      </c>
       <c r="Q13">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
@@ -3231,22 +3366,22 @@
         <v>40</v>
       </c>
       <c r="K14">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="L14">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="M14">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
         <v>4</v>
       </c>
-      <c r="P14">
-        <v>8</v>
-      </c>
       <c r="Q14">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
@@ -3257,22 +3392,22 @@
         <v>150</v>
       </c>
       <c r="K15">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="L15">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="M15">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
         <v>4</v>
       </c>
-      <c r="P15">
-        <v>8</v>
-      </c>
       <c r="Q15">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
@@ -3286,22 +3421,22 @@
         <v>36</v>
       </c>
       <c r="K17">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="L17">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="M17">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
         <v>4</v>
       </c>
-      <c r="P17">
-        <v>8</v>
-      </c>
       <c r="Q17">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
@@ -3312,22 +3447,22 @@
         <v>41</v>
       </c>
       <c r="K18">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="L18">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="M18">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
         <v>4</v>
       </c>
-      <c r="P18">
-        <v>8</v>
-      </c>
       <c r="Q18">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
@@ -3338,25 +3473,22 @@
         <v>43</v>
       </c>
       <c r="K19">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="L19">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="M19">
-        <v>-4</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P19">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
@@ -3367,22 +3499,22 @@
         <v>44</v>
       </c>
       <c r="K20">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="L20">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="M20">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
         <v>4</v>
       </c>
-      <c r="P20">
-        <v>8</v>
-      </c>
       <c r="Q20">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
@@ -3407,6 +3539,27 @@
       <c r="I23" t="s">
         <v>148</v>
       </c>
+      <c r="K23">
+        <v>-16</v>
+      </c>
+      <c r="L23">
+        <v>-11</v>
+      </c>
+      <c r="M23">
+        <v>-6</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="P23">
+        <v>12</v>
+      </c>
+      <c r="Q23">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
@@ -3418,6 +3571,24 @@
       <c r="G24" t="s">
         <v>119</v>
       </c>
+      <c r="K24">
+        <v>17</v>
+      </c>
+      <c r="L24">
+        <v>11</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>-5</v>
+      </c>
+      <c r="P24">
+        <v>-11</v>
+      </c>
+      <c r="Q24">
+        <v>-17</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
@@ -3429,6 +3600,24 @@
       <c r="G25" t="s">
         <v>144</v>
       </c>
+      <c r="K25">
+        <v>17</v>
+      </c>
+      <c r="L25">
+        <v>11</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>-5</v>
+      </c>
+      <c r="P25">
+        <v>-11</v>
+      </c>
+      <c r="Q25">
+        <v>-17</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
@@ -3441,74 +3630,110 @@
         <v>143</v>
       </c>
     </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K27">
+        <v>-13</v>
+      </c>
+      <c r="L27">
+        <v>-8</v>
+      </c>
+      <c r="M27">
+        <v>-4</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>9</v>
+      </c>
+      <c r="Q27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K28">
+        <v>-13</v>
+      </c>
+      <c r="L28">
+        <v>-8</v>
+      </c>
+      <c r="M28">
+        <v>-4</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>9</v>
+      </c>
+      <c r="Q28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K29">
+        <v>-12</v>
+      </c>
+      <c r="L29">
+        <v>-8</v>
+      </c>
+      <c r="M29">
+        <v>-4</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <v>12</v>
+      </c>
+    </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="F30" t="s">
+      <c r="K30">
+        <f>-12</f>
+        <v>-12</v>
+      </c>
+      <c r="L30">
+        <v>-8</v>
+      </c>
+      <c r="M30">
+        <v>-4</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>8</v>
+      </c>
+      <c r="Q30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="F33" t="s">
         <v>128</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G33" t="s">
         <v>125</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H33" t="s">
         <v>121</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D31" t="s">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" t="s">
         <v>122</v>
-      </c>
-      <c r="F31" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" t="s">
-        <v>126</v>
-      </c>
-      <c r="I31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" t="s">
-        <v>126</v>
-      </c>
-      <c r="G32" t="s">
-        <v>126</v>
-      </c>
-      <c r="H32" t="s">
-        <v>126</v>
-      </c>
-      <c r="I32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F33" t="s">
-        <v>126</v>
-      </c>
-      <c r="G33" t="s">
-        <v>126</v>
-      </c>
-      <c r="H33" t="s">
-        <v>127</v>
-      </c>
-      <c r="I33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D34" t="s">
-        <v>133</v>
       </c>
       <c r="F34" t="s">
         <v>126</v>
@@ -3517,66 +3742,96 @@
         <v>126</v>
       </c>
       <c r="H34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+      <c r="J34" t="s">
+        <v>163</v>
+      </c>
+      <c r="K34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="F35" t="s">
         <v>126</v>
       </c>
       <c r="G35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H35" t="s">
         <v>126</v>
       </c>
       <c r="I35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+      <c r="J35" t="s">
+        <v>164</v>
+      </c>
+      <c r="K35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>195</v>
+      </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
         <v>126</v>
       </c>
       <c r="G36" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" t="s">
         <v>127</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>126</v>
       </c>
-      <c r="I36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="J36" t="s">
+        <v>165</v>
+      </c>
+      <c r="K36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>195</v>
+      </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F37" t="s">
         <v>126</v>
       </c>
       <c r="G37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H37" t="s">
         <v>127</v>
       </c>
       <c r="I37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+      <c r="J37" t="s">
+        <v>166</v>
+      </c>
+      <c r="K37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.4">
       <c r="D38" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
         <v>126</v>
@@ -3585,66 +3840,96 @@
         <v>127</v>
       </c>
       <c r="H38" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" t="s">
+        <v>126</v>
+      </c>
+      <c r="J38" t="s">
+        <v>167</v>
+      </c>
+      <c r="K38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" t="s">
         <v>127</v>
-      </c>
-      <c r="I38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" t="s">
-        <v>126</v>
       </c>
       <c r="H39" t="s">
         <v>126</v>
       </c>
       <c r="I39" t="s">
+        <v>127</v>
+      </c>
+      <c r="J39" t="s">
+        <v>168</v>
+      </c>
+      <c r="K39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D40" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>127</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
+        <v>127</v>
+      </c>
+      <c r="I40" t="s">
         <v>126</v>
       </c>
-      <c r="H40" t="s">
+      <c r="J40" t="s">
+        <v>169</v>
+      </c>
+      <c r="K40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="D41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" t="s">
         <v>126</v>
       </c>
-      <c r="I40" t="s">
+      <c r="G41" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D41" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" t="s">
-        <v>127</v>
-      </c>
-      <c r="G41" t="s">
-        <v>126</v>
       </c>
       <c r="H41" t="s">
         <v>127</v>
       </c>
       <c r="I41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+      <c r="J41" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.4">
       <c r="D42" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F42" t="s">
         <v>127</v>
@@ -3653,66 +3938,93 @@
         <v>126</v>
       </c>
       <c r="H42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+      <c r="J42" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
+        <v>195</v>
+      </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F43" t="s">
         <v>127</v>
       </c>
       <c r="G43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H43" t="s">
         <v>126</v>
       </c>
       <c r="I43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+      <c r="J43" t="s">
+        <v>172</v>
+      </c>
+      <c r="K43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F44" t="s">
         <v>127</v>
       </c>
       <c r="G44" t="s">
+        <v>126</v>
+      </c>
+      <c r="H44" t="s">
         <v>127</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>126</v>
       </c>
-      <c r="I44" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="J44" t="s">
+        <v>173</v>
+      </c>
+      <c r="K44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.4">
       <c r="D45" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
         <v>127</v>
       </c>
       <c r="G45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H45" t="s">
         <v>127</v>
       </c>
       <c r="I45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+      <c r="J45" t="s">
+        <v>174</v>
+      </c>
+      <c r="K45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F46" t="s">
         <v>127</v>
@@ -3721,10 +4033,94 @@
         <v>127</v>
       </c>
       <c r="H46" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" t="s">
+        <v>126</v>
+      </c>
+      <c r="J46" t="s">
+        <v>175</v>
+      </c>
+      <c r="K46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" t="s">
         <v>127</v>
       </c>
-      <c r="I46" t="s">
+      <c r="G47" t="s">
         <v>127</v>
+      </c>
+      <c r="H47" t="s">
+        <v>126</v>
+      </c>
+      <c r="I47" t="s">
+        <v>127</v>
+      </c>
+      <c r="J47" t="s">
+        <v>176</v>
+      </c>
+      <c r="K47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C48" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" t="s">
+        <v>127</v>
+      </c>
+      <c r="I48" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48" t="s">
+        <v>177</v>
+      </c>
+      <c r="K48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" t="s">
+        <v>127</v>
+      </c>
+      <c r="I49" t="s">
+        <v>127</v>
+      </c>
+      <c r="J49" t="s">
+        <v>178</v>
+      </c>
+      <c r="K49" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/presentation_data/RTS.xlsx
+++ b/presentation_data/RTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\3학년1학기\신호처리 및 시스템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33263DC-AA57-4E9D-B540-94770FBA3B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CF0217-F125-456A-8D00-C55859B898D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6936" yWindow="420" windowWidth="15924" windowHeight="11940" activeTab="2" xr2:uid="{F51E13F1-0B81-4DC4-AA1E-48770D051AB2}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{F51E13F1-0B81-4DC4-AA1E-48770D051AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="212">
   <si>
     <t>간식백서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -822,6 +822,56 @@
   <si>
     <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://kr.freepik.com/vectors/people"&gt;People 벡터는 felicities - kr.freepik.com가 제작함&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://kr.freepik.com/vectors/people'&gt;People 벡터는 storyset - kr.freepik.com가 제작함&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://kr.freepik.com/vectors/infographic'&gt;Infographic 벡터는 vectorjuice - kr.freepik.com가 제작함&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://kr.freepik.com/vectors/background'&gt;Background 벡터는 jcomp - kr.freepik.com가 제작함&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>노홍철 (@LUCKYHONGCHUL) / 트위터 (twitter.com)</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://kr.freepik.com/vectors/design'&gt;Design 벡터는 freepik - kr.freepik.com가 제작함&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.freepik.com/vectors/banner-people'&gt;Banner people vector created by macrovector - www.freepik.com&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.freepik.com/vectors/prince'&gt;Prince vector created by pch.vector - www.freepik.com&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://kr.freepik.com/vectors/nature'&gt;Nature 벡터는 macrovector - kr.freepik.com가 제작함&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href='https://kr.freepik.com/vectors/travel'&gt;Travel 벡터는 storyset - kr.freepik.com가 제작함&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camping on nature person in tent lake and trees Vector Image (vectorstock.com)</t>
+  </si>
+  <si>
+    <t>Artist Vector Art, Icons, and Graphics for Free Download (vecteezy.com)</t>
+  </si>
+  <si>
+    <t>Fighter Vector Art, Icons, and Graphics for Free Download (vecteezy.com)</t>
+  </si>
+  <si>
+    <t>Ratatouille | Just a fun little Remy illustration! | Jerrod Maruyama | Flickr</t>
+  </si>
+  <si>
+    <t>[응답하라 스포츠1994] (6)'씨름 지킴이' 김정필이 말한다, 강호동과 두꺼비에 대하여 - 스포츠Q(큐) (sportsq.co.kr)</t>
+  </si>
+  <si>
+    <t>student man with glasses and bag character, people student university 3369787 Vector Art at Vecteezy</t>
   </si>
 </sst>
 </file>
@@ -831,7 +881,7 @@
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,6 +945,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1528,15 +1587,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1639,6 +1701,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1832,9 +1897,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="통화 [0]" xfId="1" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2165,69 +2231,69 @@
   <sheetData>
     <row r="1" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="53"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G3" s="6"/>
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="2:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="36"/>
       <c r="R4" s="11"/>
-      <c r="V4" s="34" t="s">
+      <c r="V4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="35"/>
+      <c r="W4" s="36"/>
     </row>
     <row r="5" spans="2:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="J5" s="60" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="J5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="61"/>
+      <c r="K5" s="62"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="68"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="37"/>
+      <c r="M5" s="69"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="38"/>
       <c r="X5" s="10"/>
-      <c r="Y5" s="48" t="s">
+      <c r="Y5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Z5" s="49"/>
+      <c r="Z5" s="50"/>
     </row>
     <row r="6" spans="2:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="70"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="51"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="68"/>
+      <c r="M6" s="69"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="37"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="51"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="38"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="52"/>
     </row>
     <row r="7" spans="2:26" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="7"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="40"/>
     </row>
     <row r="8" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G8" s="6"/>
@@ -2244,10 +2310,10 @@
       <c r="I9" s="7"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="56" t="s">
+      <c r="S9" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="57"/>
+      <c r="T9" s="58"/>
       <c r="W9" s="4"/>
     </row>
     <row r="10" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2266,16 +2332,16 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="59"/>
-      <c r="V10" s="40" t="s">
+      <c r="S10" s="59"/>
+      <c r="T10" s="60"/>
+      <c r="V10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="41"/>
-      <c r="Y10" s="48" t="s">
+      <c r="W10" s="42"/>
+      <c r="Y10" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="Z10" s="49"/>
+      <c r="Z10" s="50"/>
     </row>
     <row r="11" spans="2:26" ht="8.6999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="7"/>
@@ -2291,33 +2357,33 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="4"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="44"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="52"/>
     </row>
     <row r="12" spans="2:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="55"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="55"/>
-      <c r="M12" s="54" t="s">
+      <c r="K12" s="56"/>
+      <c r="M12" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="55"/>
-      <c r="P12" s="54" t="s">
+      <c r="N12" s="56"/>
+      <c r="P12" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="55"/>
+      <c r="Q12" s="56"/>
       <c r="V12" s="22"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.4">
@@ -2331,36 +2397,36 @@
       <c r="K13" s="4"/>
       <c r="N13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="V13" s="44" t="s">
+      <c r="V13" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="W13" s="45"/>
+      <c r="W13" s="46"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="63" t="s">
+      <c r="G14" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="45"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="45"/>
+      <c r="K14" s="46"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="44" t="s">
+      <c r="M14" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="45"/>
+      <c r="N14" s="46"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="45"/>
+      <c r="Q14" s="46"/>
       <c r="V14" s="16"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.4">
@@ -2376,32 +2442,32 @@
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="14"/>
-      <c r="V15" s="46" t="s">
+      <c r="V15" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="W15" s="47"/>
+      <c r="W15" s="48"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="45"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="64" t="s">
+      <c r="M16" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="45"/>
+      <c r="N16" s="46"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="44" t="s">
+      <c r="P16" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q16" s="45"/>
+      <c r="Q16" s="46"/>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.4">
       <c r="D17" s="19"/>
@@ -2417,26 +2483,26 @@
       <c r="Q17" s="14"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="63" t="s">
+      <c r="G18" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="45"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="65" t="s">
+      <c r="M18" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="45"/>
+      <c r="N18" s="46"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="44" t="s">
+      <c r="P18" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Q18" s="45"/>
+      <c r="Q18" s="46"/>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.4">
       <c r="D19" s="19"/>
@@ -2462,11 +2528,11 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
-      <c r="N20" s="44" t="s">
+      <c r="N20" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="63"/>
-      <c r="P20" s="45"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="46"/>
       <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.4">
@@ -2489,11 +2555,11 @@
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-      <c r="N22" s="44" t="s">
+      <c r="N22" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O22" s="63"/>
-      <c r="P22" s="45"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="46"/>
       <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.4">
@@ -2586,13 +2652,13 @@
     <row r="2" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="3:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H3" s="26"/>
-      <c r="I3" s="80" t="s">
+      <c r="I3" s="81" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G4" s="27"/>
-      <c r="I4" s="74"/>
+      <c r="I4" s="75"/>
     </row>
     <row r="5" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G5" s="27"/>
@@ -2604,17 +2670,17 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="77" t="s">
+      <c r="L6" s="78" t="s">
         <v>120</v>
       </c>
       <c r="M6" s="26"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="73" t="s">
+      <c r="O6" s="74" t="s">
         <v>115</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="32"/>
-      <c r="R6" s="80" t="s">
+      <c r="R6" s="81" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2622,72 +2688,72 @@
       <c r="G7" s="27"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="74"/>
-      <c r="O7" s="74"/>
+      <c r="L7" s="75"/>
+      <c r="O7" s="75"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="74"/>
-      <c r="U7" s="90" t="s">
+      <c r="R7" s="75"/>
+      <c r="U7" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="V7" s="91"/>
+      <c r="V7" s="92"/>
     </row>
     <row r="8" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G8" s="27"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="94"/>
     </row>
     <row r="9" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="76" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="76" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="79" t="s">
         <v>63</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="78" t="s">
+      <c r="L9" s="79" t="s">
         <v>28</v>
       </c>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="76"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="9"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="76"/>
+      <c r="F10" s="77"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="79"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="17"/>
-      <c r="L10" s="79"/>
+      <c r="L10" s="80"/>
       <c r="M10" s="9"/>
-      <c r="U10" s="81" t="s">
+      <c r="U10" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="V10" s="82"/>
+      <c r="V10" s="83"/>
     </row>
     <row r="11" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E11" s="4"/>
       <c r="H11" s="4"/>
       <c r="J11" s="17"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="85"/>
     </row>
     <row r="12" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E12" s="4"/>
       <c r="H12" s="4"/>
       <c r="J12" s="17"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="78" t="s">
+      <c r="L12" s="79" t="s">
         <v>27</v>
       </c>
       <c r="M12" s="9"/>
@@ -2695,18 +2761,18 @@
     <row r="13" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="L13" s="79"/>
+      <c r="L13" s="80"/>
       <c r="M13" s="9"/>
-      <c r="U13" s="94" t="s">
+      <c r="U13" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="V13" s="95"/>
+      <c r="V13" s="96"/>
     </row>
     <row r="14" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="98"/>
     </row>
     <row r="15" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E15" s="4"/>
@@ -2715,59 +2781,59 @@
     <row r="16" spans="3:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="L16" s="78" t="s">
+      <c r="L16" s="79" t="s">
         <v>45</v>
       </c>
       <c r="M16" s="9"/>
-      <c r="U16" s="85" t="s">
+      <c r="U16" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="V16" s="86"/>
+      <c r="V16" s="87"/>
     </row>
     <row r="17" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E17" s="4"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="72" t="s">
         <v>64</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="79"/>
+      <c r="L17" s="80"/>
       <c r="M17" s="9"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="88"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="89"/>
     </row>
     <row r="18" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E18" s="4"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="72"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="21"/>
     </row>
     <row r="19" spans="5:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" s="4"/>
       <c r="H19" s="4"/>
       <c r="J19" s="17"/>
-      <c r="L19" s="71" t="s">
+      <c r="L19" s="72" t="s">
         <v>49</v>
       </c>
       <c r="M19" s="9"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
     </row>
     <row r="20" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E20" s="4"/>
       <c r="H20" s="4"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="72"/>
+      <c r="L20" s="73"/>
       <c r="M20" s="9"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
     </row>
     <row r="21" spans="5:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E21" s="4"/>
       <c r="H21" s="4"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="80" t="s">
+      <c r="O21" s="81" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2775,13 +2841,13 @@
       <c r="E22" s="4"/>
       <c r="H22" s="4"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="74"/>
+      <c r="O22" s="75"/>
     </row>
     <row r="23" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E23" s="4"/>
       <c r="H23" s="4"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="78" t="s">
+      <c r="L23" s="79" t="s">
         <v>46</v>
       </c>
       <c r="M23" s="28"/>
@@ -2790,31 +2856,31 @@
     <row r="24" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E24" s="4"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="71" t="s">
+      <c r="I24" s="72" t="s">
         <v>65</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="79"/>
+      <c r="L24" s="80"/>
       <c r="M24" s="23"/>
       <c r="N24" s="24"/>
-      <c r="O24" s="78" t="s">
+      <c r="O24" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="73"/>
       <c r="K25" s="4"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="79"/>
+      <c r="O25" s="80"/>
     </row>
     <row r="26" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E26" s="4"/>
       <c r="H26" s="4"/>
       <c r="K26" s="24"/>
-      <c r="L26" s="71" t="s">
+      <c r="L26" s="72" t="s">
         <v>47</v>
       </c>
       <c r="N26" s="4"/>
@@ -2822,16 +2888,16 @@
     <row r="27" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="L27" s="72"/>
+      <c r="L27" s="73"/>
       <c r="N27" s="24"/>
-      <c r="O27" s="78" t="s">
+      <c r="O27" s="79" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="5:22" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="O28" s="79"/>
+      <c r="O28" s="80"/>
     </row>
     <row r="29" spans="5:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="4"/>
@@ -2845,7 +2911,7 @@
       <c r="E31" s="4"/>
       <c r="H31" s="4"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="80" t="s">
+      <c r="O31" s="81" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2853,13 +2919,13 @@
       <c r="E32" s="4"/>
       <c r="H32" s="4"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="74"/>
+      <c r="O32" s="75"/>
     </row>
     <row r="33" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E33" s="4"/>
       <c r="H33" s="4"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="78" t="s">
+      <c r="L33" s="79" t="s">
         <v>46</v>
       </c>
       <c r="M33" s="28"/>
@@ -2868,27 +2934,27 @@
     <row r="34" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E34" s="4"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="71" t="s">
+      <c r="I34" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="79"/>
+      <c r="L34" s="80"/>
       <c r="M34" s="23"/>
       <c r="N34" s="24"/>
-      <c r="O34" s="78" t="s">
+      <c r="O34" s="79" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E35" s="4"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="72"/>
+      <c r="I35" s="73"/>
       <c r="K35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="79"/>
+      <c r="O35" s="80"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="80" t="s">
+      <c r="R35" s="81" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2896,19 +2962,19 @@
       <c r="E36" s="4"/>
       <c r="H36" s="4"/>
       <c r="K36" s="24"/>
-      <c r="L36" s="71" t="s">
+      <c r="L36" s="72" t="s">
         <v>47</v>
       </c>
       <c r="N36" s="4"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="74"/>
+      <c r="R36" s="75"/>
     </row>
     <row r="37" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="L37" s="72"/>
+      <c r="L37" s="73"/>
       <c r="N37" s="24"/>
-      <c r="O37" s="78" t="s">
+      <c r="O37" s="79" t="s">
         <v>54</v>
       </c>
       <c r="P37" s="10"/>
@@ -2917,27 +2983,27 @@
     <row r="38" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="O38" s="79"/>
+      <c r="O38" s="80"/>
       <c r="Q38" s="24"/>
-      <c r="R38" s="78" t="s">
+      <c r="R38" s="79" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="R39" s="79"/>
+      <c r="R39" s="80"/>
     </row>
     <row r="40" spans="5:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E40" s="4"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="75" t="s">
+      <c r="I40" s="76" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="41" spans="5:18" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E41" s="4"/>
-      <c r="I41" s="76"/>
+      <c r="I41" s="77"/>
     </row>
     <row r="42" spans="5:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E42" s="4"/>
@@ -2950,20 +3016,20 @@
     </row>
     <row r="45" spans="5:18" ht="7.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E45" s="24"/>
-      <c r="F45" s="75" t="s">
+      <c r="F45" s="76" t="s">
         <v>57</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="75" t="s">
+      <c r="I45" s="76" t="s">
         <v>69</v>
       </c>
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="5:18" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F46" s="76"/>
+      <c r="F46" s="77"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="76"/>
+      <c r="I46" s="77"/>
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="5:18" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2972,38 +3038,38 @@
     </row>
     <row r="48" spans="5:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H48" s="24"/>
-      <c r="I48" s="75" t="s">
+      <c r="I48" s="76" t="s">
         <v>70</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
-      <c r="L48" s="75" t="s">
+      <c r="L48" s="76" t="s">
         <v>59</v>
       </c>
       <c r="N48" s="7"/>
-      <c r="O48" s="75" t="s">
+      <c r="O48" s="76" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="8:15" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H49" s="3"/>
-      <c r="I49" s="76"/>
-      <c r="L49" s="76"/>
+      <c r="I49" s="77"/>
+      <c r="L49" s="77"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-      <c r="O49" s="76"/>
+      <c r="O49" s="77"/>
     </row>
     <row r="50" spans="8:15" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="8:15" ht="7.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H51" s="24"/>
-      <c r="I51" s="75" t="s">
+      <c r="I51" s="76" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="8:15" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I52" s="76"/>
+      <c r="I52" s="77"/>
     </row>
     <row r="53" spans="8:15" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="54" spans="8:15" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3075,14 +3141,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DD46B8-3A6A-4986-82F3-B83C412D6DAE}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="11" max="17" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3755,6 +3822,9 @@
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>195</v>
+      </c>
       <c r="D35" t="s">
         <v>123</v>
       </c>
@@ -3830,6 +3900,9 @@
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
+        <v>195</v>
+      </c>
       <c r="D38" t="s">
         <v>140</v>
       </c>
@@ -3905,6 +3978,9 @@
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>195</v>
+      </c>
       <c r="D41" t="s">
         <v>153</v>
       </c>
@@ -3977,6 +4053,9 @@
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C44" t="s">
+        <v>195</v>
+      </c>
       <c r="D44" t="s">
         <v>139</v>
       </c>
@@ -4023,6 +4102,9 @@
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
+        <v>195</v>
+      </c>
       <c r="D46" t="s">
         <v>130</v>
       </c>
@@ -4097,7 +4179,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C49" t="s">
         <v>195</v>
       </c>
@@ -4123,10 +4205,147 @@
         <v>179</v>
       </c>
     </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="D55" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" t="s">
+        <v>205</v>
+      </c>
+      <c r="P55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="D56" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="D57" t="s">
+        <v>154</v>
+      </c>
+      <c r="F57" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="D58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="D59" t="s">
+        <v>140</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="D60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="D61" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="D62" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="D63" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="D64" t="s">
+        <v>132</v>
+      </c>
+      <c r="F64" s="34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D65" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D66" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" s="34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D69" t="s">
+        <v>152</v>
+      </c>
+      <c r="F69" s="34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F59" r:id="rId1" display="https://mobile.twitter.com/luckyhongchul" xr:uid="{BF081636-B133-44F7-B33B-3E58E792C631}"/>
+    <hyperlink ref="F70" r:id="rId2" display="https://www.vectorstock.com/royalty-free-vector/camping-on-nature-person-in-tent-lake-and-trees-vector-24741387" xr:uid="{C0AC09C3-B556-4C95-87C7-36F84F09C32E}"/>
+    <hyperlink ref="F68" r:id="rId3" display="https://www.vecteezy.com/free-vector/artist" xr:uid="{26414156-1A6D-42D8-BC33-FFAC233888FD}"/>
+    <hyperlink ref="F67" r:id="rId4" display="https://www.vecteezy.com/free-vector/fighter" xr:uid="{2E939E5D-40A7-4B21-B3BF-88A294CB13B2}"/>
+    <hyperlink ref="F64" r:id="rId5" display="https://www.flickr.com/photos/jmaruyama/6003553879/" xr:uid="{B021387D-4E40-4968-B32C-14CE0BE2C228}"/>
+    <hyperlink ref="F61" r:id="rId6" display="https://www.sportsq.co.kr/news/articleView.html?idxno=22434" xr:uid="{52775FAE-4131-4F70-B442-954FAE1BE97B}"/>
+    <hyperlink ref="F69" r:id="rId7" display="https://www.vecteezy.com/vector-art/3369787-student-man-with-glasses-and-bag-character-people-student-university" xr:uid="{0513E43D-E823-4CEE-86C2-2FFB8B909575}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
